--- a/PG.xlsx
+++ b/PG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D86C039B-B5BB-431C-9BAD-077B0D2B7F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50966A97-FBFD-42F9-A814-6AE898C3474E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="420" windowWidth="28800" windowHeight="15375" activeTab="1" xr2:uid="{0F7B74EE-26C4-43C0-8ED2-7F3AED04CA51}"/>
+    <workbookView xWindow="37000" yWindow="4170" windowWidth="32770" windowHeight="15380" xr2:uid="{0F7B74EE-26C4-43C0-8ED2-7F3AED04CA51}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -108,9 +108,6 @@
     <t>EPS</t>
   </si>
   <si>
-    <t>Q424</t>
-  </si>
-  <si>
     <t>Head &amp; Shoulders, Herbal Essences, Pantene, Olay, Old Spice, SK-II, Native</t>
   </si>
   <si>
@@ -217,6 +214,9 @@
   </si>
   <si>
     <t>F2019</t>
+  </si>
+  <si>
+    <t>Q125</t>
   </si>
 </sst>
 </file>
@@ -224,7 +224,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="m/d/yy;@"/>
+    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -288,7 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -750,104 +750,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7C84179-C1EB-4454-8C02-B04DCE01CA01}">
   <dimension ref="B2:N7"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="3.08984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="M2" s="2">
-        <v>178.83</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M3" s="4">
-        <v>2458</v>
+        <v>2344.5420340000001</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="M4" s="4">
         <f>+M2*M3</f>
-        <v>439564.14</v>
+        <v>372782.18340600003</v>
       </c>
       <c r="N4" s="7"/>
     </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="M5" s="4">
-        <v>10230</v>
+        <v>9116</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="M6" s="4">
-        <f>9424+25263</f>
-        <v>34687</v>
+        <f>9889+24252</f>
+        <v>34141</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M7" s="4">
         <f>+M4-M5+M6</f>
-        <v>464021.14</v>
+        <v>397807.18340600003</v>
       </c>
     </row>
   </sheetData>
@@ -859,92 +861,92 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC77FE65-C0ED-444A-9B0C-D803DA7CC682}">
   <dimension ref="A1:DZ30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="Q14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="U4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Z25" sqref="Z25"/>
+      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="9.140625" style="1"/>
-    <col min="10" max="14" width="8.42578125" style="1" customWidth="1"/>
-    <col min="15" max="19" width="9.140625" style="1"/>
-    <col min="20" max="22" width="9.140625" style="7"/>
-    <col min="23" max="25" width="9.140625" style="1"/>
-    <col min="26" max="26" width="9.28515625" style="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="9.1796875" style="1"/>
+    <col min="10" max="14" width="8.453125" style="1" customWidth="1"/>
+    <col min="15" max="19" width="9.1796875" style="1"/>
+    <col min="20" max="22" width="9.1796875" style="7"/>
+    <col min="23" max="25" width="9.1796875" style="1"/>
+    <col min="26" max="26" width="9.26953125" style="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="C2" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="N2" s="7" t="s">
+      <c r="P2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" s="7" t="s">
+      <c r="U2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="U2" s="7" t="s">
+      <c r="V2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="V2" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C3" s="3">
         <v>44834</v>
       </c>
@@ -1005,7 +1007,7 @@
         <v>45838</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1029,7 +1031,7 @@
       <c r="U4" s="9"/>
       <c r="V4" s="9"/>
     </row>
-    <row r="5" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1053,7 +1055,7 @@
       <c r="U5" s="9"/>
       <c r="V5" s="9"/>
     </row>
-    <row r="6" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
@@ -1077,7 +1079,7 @@
       <c r="U6" s="9"/>
       <c r="V6" s="9"/>
     </row>
-    <row r="7" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>10</v>
       </c>
@@ -1101,7 +1103,7 @@
       <c r="U7" s="9"/>
       <c r="V7" s="9"/>
     </row>
-    <row r="8" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
@@ -1125,7 +1127,7 @@
       <c r="U8" s="9"/>
       <c r="V8" s="9"/>
     </row>
-    <row r="9" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
@@ -1149,7 +1151,7 @@
       <c r="U9" s="9"/>
       <c r="V9" s="9"/>
     </row>
-    <row r="10" spans="1:22" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
@@ -1220,7 +1222,7 @@
         <v>85565.78</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1285,88 +1287,88 @@
         <v>41678</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="4">
-        <f>+C10-C11</f>
+        <f t="shared" ref="C12:N12" si="0">+C10-C11</f>
         <v>9766</v>
       </c>
       <c r="D12" s="4">
-        <f>+D10-D11</f>
+        <f t="shared" si="0"/>
         <v>9876</v>
       </c>
       <c r="E12" s="4">
-        <f>+E10-E11</f>
+        <f t="shared" si="0"/>
         <v>9664</v>
       </c>
       <c r="F12" s="4">
-        <f>+F10-F11</f>
+        <f t="shared" si="0"/>
         <v>9940</v>
       </c>
       <c r="G12" s="4">
-        <f>+G10-G11</f>
+        <f t="shared" si="0"/>
         <v>11370</v>
       </c>
       <c r="H12" s="4">
-        <f>+H10-H11</f>
+        <f t="shared" si="0"/>
         <v>11297</v>
       </c>
       <c r="I12" s="4">
-        <f>+I10-I11</f>
+        <f t="shared" si="0"/>
         <v>10340</v>
       </c>
       <c r="J12" s="4">
-        <f>+J10-J11</f>
+        <f t="shared" si="0"/>
         <v>10183</v>
       </c>
       <c r="K12" s="4">
-        <f>+K10-K11</f>
+        <f t="shared" si="0"/>
         <v>11316</v>
       </c>
       <c r="L12" s="4">
-        <f>+L10-L11</f>
+        <f t="shared" si="0"/>
         <v>11463</v>
       </c>
       <c r="M12" s="4">
-        <f>+M10-M11</f>
+        <f t="shared" si="0"/>
         <v>10379.850000000002</v>
       </c>
       <c r="N12" s="4">
-        <f>+N10-N11</f>
+        <f t="shared" si="0"/>
         <v>10728.93</v>
       </c>
       <c r="P12" s="9">
-        <f>+P10-P11</f>
+        <f t="shared" ref="P12:V12" si="1">+P10-P11</f>
         <v>32916</v>
       </c>
       <c r="Q12" s="9">
-        <f>+Q10-Q11</f>
+        <f t="shared" si="1"/>
         <v>35700</v>
       </c>
       <c r="R12" s="9">
-        <f>+R10-R11</f>
+        <f t="shared" si="1"/>
         <v>39010</v>
       </c>
       <c r="S12" s="9">
-        <f>+S10-S11</f>
+        <f t="shared" si="1"/>
         <v>38030</v>
       </c>
       <c r="T12" s="9">
-        <f>+T10-T11</f>
+        <f t="shared" si="1"/>
         <v>39246</v>
       </c>
       <c r="U12" s="9">
-        <f>+U10-U11</f>
+        <f t="shared" si="1"/>
         <v>43190</v>
       </c>
       <c r="V12" s="9">
-        <f>+V10-V11</f>
+        <f t="shared" si="1"/>
         <v>43887.78</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
@@ -1431,88 +1433,88 @@
         <v>22484</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="4">
-        <f>+C12-C13</f>
+        <f t="shared" ref="C14:N14" si="2">+C12-C13</f>
         <v>4939</v>
       </c>
       <c r="D14" s="4">
-        <f>+D12-D13</f>
+        <f t="shared" si="2"/>
         <v>4785</v>
       </c>
       <c r="E14" s="4">
-        <f>+E12-E13</f>
+        <f t="shared" si="2"/>
         <v>4248</v>
       </c>
       <c r="F14" s="4">
-        <f>+F12-F13</f>
+        <f t="shared" si="2"/>
         <v>4162</v>
       </c>
       <c r="G14" s="4">
-        <f>+G12-G13</f>
+        <f t="shared" si="2"/>
         <v>5766</v>
       </c>
       <c r="H14" s="4">
-        <f>+H12-H13</f>
+        <f t="shared" si="2"/>
         <v>5775</v>
       </c>
       <c r="I14" s="4">
-        <f>+I12-I13</f>
+        <f t="shared" si="2"/>
         <v>4460</v>
       </c>
       <c r="J14" s="4">
-        <f>+J12-J13</f>
+        <f t="shared" si="2"/>
         <v>3884</v>
       </c>
       <c r="K14" s="4">
-        <f>+K12-K13</f>
+        <f t="shared" si="2"/>
         <v>5797</v>
       </c>
       <c r="L14" s="4">
-        <f>+L12-L13</f>
+        <f t="shared" si="2"/>
         <v>5740</v>
       </c>
       <c r="M14" s="4">
-        <f>+M12-M13</f>
+        <f t="shared" si="2"/>
         <v>4860.8500000000022</v>
       </c>
       <c r="N14" s="4">
-        <f>+N12-N13</f>
+        <f t="shared" si="2"/>
         <v>5005.93</v>
       </c>
       <c r="P14" s="9">
-        <f>+P12-P13</f>
+        <f t="shared" ref="P14:V14" si="3">+P12-P13</f>
         <v>13832</v>
       </c>
       <c r="Q14" s="9">
-        <f>+Q12-Q13</f>
+        <f t="shared" si="3"/>
         <v>15706</v>
       </c>
       <c r="R14" s="9">
-        <f>+R12-R13</f>
+        <f t="shared" si="3"/>
         <v>17986</v>
       </c>
       <c r="S14" s="9">
-        <f>+S12-S13</f>
+        <f t="shared" si="3"/>
         <v>17813</v>
       </c>
       <c r="T14" s="9">
-        <f>+T12-T13</f>
+        <f t="shared" si="3"/>
         <v>18134</v>
       </c>
       <c r="U14" s="9">
-        <f>+U12-U13</f>
+        <f t="shared" si="3"/>
         <v>19885</v>
       </c>
       <c r="V14" s="9">
-        <f>+V12-V13</f>
+        <f t="shared" si="3"/>
         <v>21403.78</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
@@ -1593,56 +1595,56 @@
         <v>-1108</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C16" s="4">
-        <f>+C14+C15</f>
+        <f t="shared" ref="C16:N16" si="4">+C14+C15</f>
         <v>4997</v>
       </c>
       <c r="D16" s="4">
-        <f>+D14+D15</f>
+        <f t="shared" si="4"/>
         <v>4835</v>
       </c>
       <c r="E16" s="4">
-        <f>+E14+E15</f>
+        <f t="shared" si="4"/>
         <v>4288</v>
       </c>
       <c r="F16" s="4">
-        <f>+F14+F15</f>
+        <f t="shared" si="4"/>
         <v>4233</v>
       </c>
       <c r="G16" s="4">
-        <f>+G14+G15</f>
+        <f t="shared" si="4"/>
         <v>5801</v>
       </c>
       <c r="H16" s="4">
-        <f>+H14+H15</f>
+        <f t="shared" si="4"/>
         <v>5737</v>
       </c>
       <c r="I16" s="4">
-        <f>+I14+I15</f>
+        <f t="shared" si="4"/>
         <v>4591</v>
       </c>
       <c r="J16" s="4">
-        <f>+J14+J15</f>
+        <f t="shared" si="4"/>
         <v>3869</v>
       </c>
       <c r="K16" s="4">
-        <f>+K14+K15</f>
+        <f t="shared" si="4"/>
         <v>5140</v>
       </c>
       <c r="L16" s="4">
-        <f>+L14+L15</f>
+        <f t="shared" si="4"/>
         <v>5843</v>
       </c>
       <c r="M16" s="4">
-        <f>+M14+M15</f>
+        <f t="shared" si="4"/>
         <v>4203.8500000000022</v>
       </c>
       <c r="N16" s="4">
-        <f>+N14+N15</f>
+        <f t="shared" si="4"/>
         <v>5108.93</v>
       </c>
       <c r="P16" s="9">
@@ -1666,15 +1668,15 @@
         <v>18353</v>
       </c>
       <c r="U16" s="9">
-        <f t="shared" ref="U16:V16" si="0">+U14+U15</f>
+        <f t="shared" ref="U16:V16" si="5">+U14+U15</f>
         <v>19998</v>
       </c>
       <c r="V16" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>20295.78</v>
       </c>
     </row>
-    <row r="17" spans="2:130" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
@@ -1755,84 +1757,84 @@
         <v>4792</v>
       </c>
     </row>
-    <row r="18" spans="2:130" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C18" s="4">
-        <f>+C16-C17</f>
+        <f t="shared" ref="C18:N18" si="6">+C16-C17</f>
         <v>3939</v>
       </c>
       <c r="D18" s="4">
-        <f>+D16-D17</f>
+        <f t="shared" si="6"/>
         <v>3933</v>
       </c>
       <c r="E18" s="4">
-        <f>+E16-E17</f>
+        <f t="shared" si="6"/>
         <v>3397</v>
       </c>
       <c r="F18" s="4">
-        <f>+F16-F17</f>
+        <f t="shared" si="6"/>
         <v>3384</v>
       </c>
       <c r="G18" s="4">
-        <f>+G16-G17</f>
+        <f t="shared" si="6"/>
         <v>4520</v>
       </c>
       <c r="H18" s="4">
-        <f>+H16-H17</f>
+        <f t="shared" si="6"/>
         <v>4709</v>
       </c>
       <c r="I18" s="4">
-        <f>+I16-I17</f>
+        <f t="shared" si="6"/>
         <v>3752</v>
       </c>
       <c r="J18" s="4">
-        <f>+J16-J17</f>
+        <f t="shared" si="6"/>
         <v>3136</v>
       </c>
       <c r="K18" s="4">
-        <f>+K16-K17</f>
+        <f t="shared" si="6"/>
         <v>3960</v>
       </c>
       <c r="L18" s="4">
-        <f>+L16-L17</f>
+        <f t="shared" si="6"/>
         <v>4627</v>
       </c>
       <c r="M18" s="4">
-        <f>+M16-M17</f>
+        <f t="shared" si="6"/>
         <v>3023.8500000000022</v>
       </c>
       <c r="N18" s="4">
-        <f>+N16-N17</f>
+        <f t="shared" si="6"/>
         <v>3892.9300000000003</v>
       </c>
       <c r="P18" s="9">
-        <f>+P16-P17</f>
+        <f t="shared" ref="P18:V18" si="7">+P16-P17</f>
         <v>12242</v>
       </c>
       <c r="Q18" s="9">
-        <f>+Q16-Q17</f>
+        <f t="shared" si="7"/>
         <v>13027</v>
       </c>
       <c r="R18" s="9">
-        <f>+R16-R17</f>
+        <f t="shared" si="7"/>
         <v>14306</v>
       </c>
       <c r="S18" s="9">
-        <f>+S16-S17</f>
+        <f t="shared" si="7"/>
         <v>14742</v>
       </c>
       <c r="T18" s="9">
-        <f>+T16-T17</f>
+        <f t="shared" si="7"/>
         <v>14653</v>
       </c>
       <c r="U18" s="9">
-        <f>+U16-U17</f>
+        <f t="shared" si="7"/>
         <v>16117</v>
       </c>
       <c r="V18" s="9">
-        <f>+V16-V17</f>
+        <f t="shared" si="7"/>
         <v>15503.779999999999</v>
       </c>
       <c r="W18" s="4">
@@ -1840,516 +1842,516 @@
         <v>15813.855599999999</v>
       </c>
       <c r="X18" s="4">
-        <f t="shared" ref="X18:CI18" si="1">+W18*(1+$Z$25)</f>
+        <f t="shared" ref="X18:CI18" si="8">+W18*(1+$Z$25)</f>
         <v>16130.132711999999</v>
       </c>
       <c r="Y18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>16452.735366239998</v>
       </c>
       <c r="Z18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>16781.7900735648</v>
       </c>
       <c r="AA18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>17117.425875036097</v>
       </c>
       <c r="AB18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>17459.77439253682</v>
       </c>
       <c r="AC18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>17808.969880387554</v>
       </c>
       <c r="AD18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>18165.149277995304</v>
       </c>
       <c r="AE18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>18528.452263555209</v>
       </c>
       <c r="AF18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>18899.021308826315</v>
       </c>
       <c r="AG18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19277.001735002843</v>
       </c>
       <c r="AH18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>19662.541769702901</v>
       </c>
       <c r="AI18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>20055.792605096958</v>
       </c>
       <c r="AJ18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>20456.908457198897</v>
       </c>
       <c r="AK18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>20866.046626342875</v>
       </c>
       <c r="AL18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>21283.367558869733</v>
       </c>
       <c r="AM18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>21709.034910047129</v>
       </c>
       <c r="AN18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>22143.215608248072</v>
       </c>
       <c r="AO18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>22586.079920413034</v>
       </c>
       <c r="AP18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>23037.801518821296</v>
       </c>
       <c r="AQ18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>23498.557549197722</v>
       </c>
       <c r="AR18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>23968.528700181676</v>
       </c>
       <c r="AS18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>24447.899274185311</v>
       </c>
       <c r="AT18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>24936.857259669017</v>
       </c>
       <c r="AU18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>25435.594404862397</v>
       </c>
       <c r="AV18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>25944.306292959645</v>
       </c>
       <c r="AW18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>26463.192418818839</v>
       </c>
       <c r="AX18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>26992.456267195215</v>
       </c>
       <c r="AY18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>27532.305392539121</v>
       </c>
       <c r="AZ18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>28082.951500389903</v>
       </c>
       <c r="BA18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>28644.610530397702</v>
       </c>
       <c r="BB18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>29217.502741005657</v>
       </c>
       <c r="BC18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>29801.852795825773</v>
       </c>
       <c r="BD18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>30397.889851742289</v>
       </c>
       <c r="BE18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>31005.847648777137</v>
       </c>
       <c r="BF18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>31625.964601752679</v>
       </c>
       <c r="BG18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>32258.483893787732</v>
       </c>
       <c r="BH18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>32903.65357166349</v>
       </c>
       <c r="BI18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>33561.726643096757</v>
       </c>
       <c r="BJ18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>34232.961175958691</v>
       </c>
       <c r="BK18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>34917.620399477863</v>
       </c>
       <c r="BL18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>35615.97280746742</v>
       </c>
       <c r="BM18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>36328.292263616771</v>
       </c>
       <c r="BN18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>37054.858108889108</v>
       </c>
       <c r="BO18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>37795.955271066894</v>
       </c>
       <c r="BP18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>38551.874376488231</v>
       </c>
       <c r="BQ18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>39322.911864017995</v>
       </c>
       <c r="BR18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>40109.370101298358</v>
       </c>
       <c r="BS18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>40911.557503324329</v>
       </c>
       <c r="BT18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>41729.788653390817</v>
       </c>
       <c r="BU18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>42564.384426458637</v>
       </c>
       <c r="BV18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>43415.672114987814</v>
       </c>
       <c r="BW18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>44283.985557287568</v>
       </c>
       <c r="BX18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>45169.665268433317</v>
       </c>
       <c r="BY18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>46073.058573801987</v>
       </c>
       <c r="BZ18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>46994.519745278027</v>
       </c>
       <c r="CA18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>47934.410140183587</v>
       </c>
       <c r="CB18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>48893.098342987258</v>
       </c>
       <c r="CC18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>49870.960309847003</v>
       </c>
       <c r="CD18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>50868.379516043948</v>
       </c>
       <c r="CE18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>51885.747106364826</v>
       </c>
       <c r="CF18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>52923.462048492125</v>
       </c>
       <c r="CG18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>53981.931289461965</v>
       </c>
       <c r="CH18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>55061.569915251202</v>
       </c>
       <c r="CI18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v>56162.801313556229</v>
       </c>
       <c r="CJ18" s="4">
-        <f t="shared" ref="CJ18:DZ18" si="2">+CI18*(1+$Z$25)</f>
+        <f t="shared" ref="CJ18:DZ18" si="9">+CI18*(1+$Z$25)</f>
         <v>57286.057339827355</v>
       </c>
       <c r="CK18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>58431.778486623902</v>
       </c>
       <c r="CL18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>59600.414056356378</v>
       </c>
       <c r="CM18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>60792.422337483506</v>
       </c>
       <c r="CN18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>62008.27078423318</v>
       </c>
       <c r="CO18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>63248.436199917844</v>
       </c>
       <c r="CP18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>64513.404923916205</v>
       </c>
       <c r="CQ18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>65803.673022394534</v>
       </c>
       <c r="CR18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>67119.746482842427</v>
       </c>
       <c r="CS18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>68462.141412499273</v>
       </c>
       <c r="CT18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>69831.384240749263</v>
       </c>
       <c r="CU18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>71228.011925564249</v>
       </c>
       <c r="CV18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>72652.572164075536</v>
       </c>
       <c r="CW18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>74105.623607357047</v>
       </c>
       <c r="CX18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>75587.73607950419</v>
       </c>
       <c r="CY18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>77099.490801094275</v>
       </c>
       <c r="CZ18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>78641.480617116162</v>
       </c>
       <c r="DA18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>80214.310229458482</v>
       </c>
       <c r="DB18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>81818.596434047649</v>
       </c>
       <c r="DC18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>83454.968362728599</v>
       </c>
       <c r="DD18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>85124.067729983173</v>
       </c>
       <c r="DE18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>86826.549084582832</v>
       </c>
       <c r="DF18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>88563.080066274488</v>
       </c>
       <c r="DG18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>90334.341667599976</v>
       </c>
       <c r="DH18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>92141.028500951972</v>
       </c>
       <c r="DI18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>93983.849070971017</v>
       </c>
       <c r="DJ18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>95863.526052390444</v>
       </c>
       <c r="DK18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>97780.79657343826</v>
       </c>
       <c r="DL18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>99736.412504907028</v>
       </c>
       <c r="DM18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>101731.14075500517</v>
       </c>
       <c r="DN18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>103765.76357010528</v>
       </c>
       <c r="DO18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>105841.07884150739</v>
       </c>
       <c r="DP18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>107957.90041833754</v>
       </c>
       <c r="DQ18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>110117.05842670429</v>
       </c>
       <c r="DR18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>112319.39959523837</v>
       </c>
       <c r="DS18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>114565.78758714315</v>
       </c>
       <c r="DT18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>116857.10333888601</v>
       </c>
       <c r="DU18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>119194.24540566374</v>
       </c>
       <c r="DV18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>121578.13031377702</v>
       </c>
       <c r="DW18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>124009.69292005256</v>
       </c>
       <c r="DX18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>126489.88677845361</v>
       </c>
       <c r="DY18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>129019.68451402268</v>
       </c>
       <c r="DZ18" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="9"/>
         <v>131600.07820430314</v>
       </c>
     </row>
-    <row r="19" spans="2:130" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C19" s="2">
-        <f>+C18/C20</f>
+        <f t="shared" ref="C19:N19" si="10">+C18/C20</f>
         <v>1.5733343984662087</v>
       </c>
       <c r="D19" s="2">
-        <f>+D18/D20</f>
+        <f t="shared" si="10"/>
         <v>1.5851201031758828</v>
       </c>
       <c r="E19" s="2">
-        <f>+E18/E20</f>
+        <f t="shared" si="10"/>
         <v>1.3735241792010351</v>
       </c>
       <c r="F19" s="2">
-        <f>+F18/F20</f>
+        <f t="shared" si="10"/>
         <v>1.3658930373360243</v>
       </c>
       <c r="G19" s="2">
-        <f>+G18/G20</f>
+        <f t="shared" si="10"/>
         <v>1.8261150614091792</v>
       </c>
       <c r="H19" s="2">
-        <f>+H18/H20</f>
+        <f t="shared" si="10"/>
         <v>1.9077134986225894</v>
       </c>
       <c r="I19" s="2">
-        <f>+I18/I20</f>
+        <f t="shared" si="10"/>
         <v>1.5176765633848395</v>
       </c>
       <c r="J19" s="2">
-        <f>+J18/J20</f>
+        <f t="shared" si="10"/>
         <v>1.2685057843216569</v>
       </c>
       <c r="K19" s="2">
-        <f>+K18/K20</f>
+        <f t="shared" si="10"/>
         <v>1.6058394160583942</v>
       </c>
       <c r="L19" s="2">
-        <f>+L18/L20</f>
+        <f t="shared" si="10"/>
         <v>1.8823481550791261</v>
       </c>
       <c r="M19" s="2">
-        <f>+M18/M20</f>
+        <f t="shared" si="10"/>
         <v>1.2262165450121663</v>
       </c>
       <c r="N19" s="2">
-        <f>+N18/N20</f>
+        <f t="shared" si="10"/>
         <v>1.5837150644806965</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" ref="P19:V19" si="3">+P18/P20</f>
+        <f t="shared" ref="P19:V19" si="11">+P18/P20</f>
         <v>4.8206339830675331</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>4.9611546957117829</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>5.5001922337562474</v>
       </c>
       <c r="S19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>5.8057655954631384</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>5.9144298688193739</v>
       </c>
       <c r="U19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>6.5192945554566784</v>
       </c>
       <c r="V19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="11"/>
         <v>6.3072210243684141</v>
       </c>
     </row>
-    <row r="20" spans="2:130" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:130" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>1</v>
       </c>
@@ -2414,247 +2416,247 @@
         <v>2458.1</v>
       </c>
     </row>
-    <row r="21" spans="2:130" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:130" x14ac:dyDescent="0.25">
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
       <c r="S21" s="7"/>
     </row>
-    <row r="22" spans="2:130" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G22" s="6">
-        <f>+G10/C10-1</f>
+        <f t="shared" ref="G22:N22" si="12">+G10/C10-1</f>
         <v>6.1080923733747294E-2</v>
       </c>
       <c r="H22" s="6">
-        <f>+H10/D10-1</f>
+        <f t="shared" si="12"/>
         <v>3.2157127039907474E-2</v>
       </c>
       <c r="I22" s="6">
-        <f>+I10/E10-1</f>
+        <f t="shared" si="12"/>
         <v>6.3284831572651967E-3</v>
       </c>
       <c r="J22" s="6">
-        <f>+J10/F10-1</f>
+        <f t="shared" si="12"/>
         <v>-1.0704033474432384E-3</v>
       </c>
       <c r="K22" s="6">
-        <f>+K10/G10-1</f>
+        <f t="shared" si="12"/>
         <v>-6.1268346211879043E-3</v>
       </c>
       <c r="L22" s="6">
-        <f>+L10/H10-1</f>
+        <f t="shared" si="12"/>
         <v>2.052143090340941E-2</v>
       </c>
       <c r="M22" s="6">
-        <f>+M10/I10-1</f>
+        <f t="shared" si="12"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="N22" s="6">
-        <f>+N10/J10-1</f>
+        <f t="shared" si="12"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="P22" s="7"/>
       <c r="Q22" s="12">
-        <f>+Q10/P10-1</f>
+        <f t="shared" ref="Q22:V22" si="13">+Q10/P10-1</f>
         <v>4.8253649311506441E-2</v>
       </c>
       <c r="R22" s="12">
-        <f>+R10/Q10-1</f>
+        <f t="shared" si="13"/>
         <v>7.284002818886548E-2</v>
       </c>
       <c r="S22" s="12">
-        <f>+S10/R10-1</f>
+        <f t="shared" si="13"/>
         <v>5.3456475472293041E-2</v>
       </c>
       <c r="T22" s="12">
-        <f>+T10/S10-1</f>
+        <f t="shared" si="13"/>
         <v>2.268447503959492E-2</v>
       </c>
       <c r="U22" s="12">
-        <f>+U10/T10-1</f>
+        <f t="shared" si="13"/>
         <v>2.4778674731117167E-2</v>
       </c>
       <c r="V22" s="12">
-        <f>+V10/U10-1</f>
+        <f t="shared" si="13"/>
         <v>1.8179633023156283E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:130" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="6">
-        <f t="shared" ref="C23:H23" si="4">+C12/C10</f>
+        <f t="shared" ref="C23:G23" si="14">+C12/C10</f>
         <v>0.47380166893071995</v>
       </c>
       <c r="D23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.47542483030857363</v>
       </c>
       <c r="E23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.48156268686466014</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.48362769425388019</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>0.51986648987243378</v>
       </c>
       <c r="H23" s="6">
-        <f>+H12/H10</f>
+        <f t="shared" ref="H23:N23" si="15">+H12/H10</f>
         <v>0.52688773844503523</v>
       </c>
       <c r="I23" s="6">
-        <f>+I12/I10</f>
+        <f t="shared" si="15"/>
         <v>0.51200792275315676</v>
       </c>
       <c r="J23" s="6">
-        <f>+J12/J10</f>
+        <f t="shared" si="15"/>
         <v>0.49598168623057814</v>
       </c>
       <c r="K23" s="6">
-        <f>+K12/K10</f>
+        <f t="shared" si="15"/>
         <v>0.52058701752771774</v>
       </c>
       <c r="L23" s="6">
-        <f>+L12/L10</f>
+        <f t="shared" si="15"/>
         <v>0.52387916457200312</v>
       </c>
       <c r="M23" s="6">
-        <f>+M12/M10</f>
+        <f t="shared" si="15"/>
         <v>0.4990108577293717</v>
       </c>
       <c r="N23" s="6">
-        <f>+N12/N10</f>
+        <f t="shared" si="15"/>
         <v>0.50735165813666572</v>
       </c>
       <c r="P23" s="6">
-        <f t="shared" ref="P23:Q23" si="5">+P12/P10</f>
+        <f t="shared" ref="P23:Q23" si="16">+P12/P10</f>
         <v>0.48631877548608238</v>
       </c>
       <c r="Q23" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="16"/>
         <v>0.5031712473572939</v>
       </c>
       <c r="R23" s="6">
-        <f t="shared" ref="R23:S23" si="6">+R12/R10</f>
+        <f t="shared" ref="R23:S23" si="17">+R12/R10</f>
         <v>0.51249375968890409</v>
       </c>
       <c r="S23" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="17"/>
         <v>0.47426640228465961</v>
       </c>
       <c r="T23" s="6">
-        <f t="shared" ref="T23:V23" si="7">+T12/T10</f>
+        <f t="shared" ref="T23:V23" si="18">+T12/T10</f>
         <v>0.47857473843377313</v>
       </c>
       <c r="U23" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>0.51393417263618835</v>
       </c>
       <c r="V23" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="18"/>
         <v>0.51291275554316218</v>
       </c>
     </row>
-    <row r="24" spans="2:130" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C24" s="6">
         <f>+C17/C16</f>
         <v>0.21172703622173303</v>
       </c>
       <c r="D24" s="6">
-        <f t="shared" ref="D24:N24" si="8">+D17/D16</f>
+        <f t="shared" ref="D24:N24" si="19">+D17/D16</f>
         <v>0.18655635987590485</v>
       </c>
       <c r="E24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>0.20778917910447761</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>0.2005669737774628</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>0.22082399586278229</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>0.17918772877810701</v>
       </c>
       <c r="I24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>0.18274885645828795</v>
       </c>
       <c r="J24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>0.1894546394417162</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>0.22957198443579765</v>
       </c>
       <c r="L24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>0.2081122710936163</v>
       </c>
       <c r="M24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>0.2806950771316768</v>
       </c>
       <c r="N24" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="19"/>
         <v>0.23801461362751103</v>
       </c>
       <c r="P24" s="6">
-        <f t="shared" ref="P24:Q24" si="9">+P17/P16</f>
+        <f t="shared" ref="P24:Q24" si="20">+P17/P16</f>
         <v>0.15068683224642709</v>
       </c>
       <c r="Q24" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="20"/>
         <v>0.17727674624226347</v>
       </c>
       <c r="R24" s="6">
-        <f t="shared" ref="R24:S24" si="10">+R17/R16</f>
+        <f t="shared" ref="R24:S24" si="21">+R17/R16</f>
         <v>0.18785126312801589</v>
       </c>
       <c r="S24" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="21"/>
         <v>0.18077243678799668</v>
       </c>
       <c r="T24" s="6">
-        <f t="shared" ref="T24:V24" si="11">+T17/T16</f>
+        <f t="shared" ref="T24:V24" si="22">+T17/T16</f>
         <v>0.20160191794257071</v>
       </c>
       <c r="U24" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>0.19406940694069408</v>
       </c>
       <c r="V24" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>0.23610819589096849</v>
       </c>
     </row>
-    <row r="25" spans="2:130" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:130" x14ac:dyDescent="0.25">
       <c r="Y25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z25" s="6">
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="2:130" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P26" s="4">
         <v>15242</v>
@@ -2675,15 +2677,15 @@
         <v>19846</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Z26" s="6">
         <v>0.06</v>
       </c>
     </row>
-    <row r="27" spans="2:130" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P27" s="4">
         <v>3347</v>
@@ -2704,50 +2706,50 @@
         <v>3322</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z27" s="4">
         <f>NPV(Z26,W18:DZ18)-Main!M5+Main!M6</f>
-        <v>413598.08862037852</v>
-      </c>
-    </row>
-    <row r="28" spans="2:130" x14ac:dyDescent="0.2">
+        <v>414166.08862037852</v>
+      </c>
+    </row>
+    <row r="28" spans="2:130" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P28" s="4">
-        <f>+P26-P27</f>
+        <f t="shared" ref="P28:U28" si="23">+P26-P27</f>
         <v>11895</v>
       </c>
       <c r="Q28" s="4">
-        <f>+Q26-Q27</f>
+        <f t="shared" si="23"/>
         <v>14330</v>
       </c>
       <c r="R28" s="4">
-        <f>+R26-R27</f>
+        <f t="shared" si="23"/>
         <v>15584</v>
       </c>
       <c r="S28" s="9">
-        <f>+S26-S27</f>
+        <f t="shared" si="23"/>
         <v>13567</v>
       </c>
       <c r="T28" s="9">
-        <f>+T26-T27</f>
+        <f t="shared" si="23"/>
         <v>13786</v>
       </c>
       <c r="U28" s="9">
-        <f>+U26-U27</f>
+        <f t="shared" si="23"/>
         <v>16524</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z28" s="2">
         <f>Z27/Main!M3</f>
-        <v>168.26610602944609</v>
-      </c>
-    </row>
-    <row r="29" spans="2:130" x14ac:dyDescent="0.2">
+        <v>176.65116795273397</v>
+      </c>
+    </row>
+    <row r="29" spans="2:130" x14ac:dyDescent="0.25">
       <c r="Q29" s="6">
         <f>+Q28/P28-1</f>
         <v>0.20470786044556544</v>
@@ -2769,7 +2771,7 @@
         <v>0.19860728275061668</v>
       </c>
     </row>
-    <row r="30" spans="2:130" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:130" x14ac:dyDescent="0.25">
       <c r="U30" s="12">
         <f>RATE(5,0,-P28,U28)</f>
         <v>6.7948101392961174E-2</v>
